--- a/public/assets/import.xlsx
+++ b/public/assets/import.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\anacargo\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>client_code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -41,13 +38,13 @@
     <t>phone_1</t>
   </si>
   <si>
-    <t>phone_2</t>
-  </si>
-  <si>
     <t>fax</t>
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>no_api</t>
   </si>
 </sst>
 </file>
@@ -400,38 +397,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
